--- a/public/uploads/Dotacion turno A del 04-01-2023.xlsx
+++ b/public/uploads/Dotacion turno A del 04-01-2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBE1649-ABA1-49DF-AD50-4730671DC02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55DD31-1737-480E-85D1-D8B629937269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
   <si>
     <t>SECTOR</t>
   </si>
@@ -899,13 +899,16 @@
     <t>COMPENSADO</t>
   </si>
   <si>
-    <t>DOTACION TURNO  A DEL 04-01-2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">PERMISO SIN GOSE </t>
   </si>
   <si>
     <t xml:space="preserve">CURSO </t>
+  </si>
+  <si>
+    <t>DOTACION TURNO  A DEL 04-01-2023</t>
+  </si>
+  <si>
+    <t>PILAR NORTE</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -2681,7 +2684,9 @@
       <c r="F44" s="69"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="66" t="s">
+        <v>279</v>
+      </c>
       <c r="B45" s="32" t="s">
         <v>246</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F64" s="70"/>
     </row>
@@ -3184,7 +3189,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F74" s="69">
         <v>2</v>
@@ -3218,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F76" s="69"/>
     </row>
@@ -3286,7 +3291,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F80" s="69"/>
     </row>
